--- a/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaG2.xlsx
+++ b/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaG2.xlsx
@@ -21,14 +21,14 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId4"/>
-    <pivotCache cacheId="48" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="37">
   <si>
     <t>Container</t>
   </si>
@@ -102,9 +102,6 @@
     <t>20842-ESCALOPIN LOMO ADOB. 300 GR. B</t>
   </si>
   <si>
-    <t>minutos</t>
-  </si>
-  <si>
     <t>21078-CARNE ESTOFADO CERDO 600 GR. B</t>
   </si>
   <si>
@@ -138,46 +135,10 @@
     <t>PALETS PLATAFORMA</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>PALET-004(332-1984761-DI)</t>
-  </si>
-  <si>
-    <t>PALET-004(311-1984761-DI)</t>
-  </si>
-  <si>
-    <t>PALET-004(352-1984761-DI)</t>
-  </si>
-  <si>
-    <t>PALET-005(352-1984761-DI)</t>
-  </si>
-  <si>
-    <t>PALET-005(332-1984761-DI)</t>
-  </si>
-  <si>
-    <t>PALET-005(312-1984761-DI)</t>
-  </si>
-  <si>
     <t>Sum of Loaded2</t>
   </si>
   <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>PALET-003(331-1984761-DI)</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
+    <t>segundos</t>
   </si>
 </sst>
 </file>
@@ -666,8 +627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -798,63 +759,58 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.418481018518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="40">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.754760532407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:H44" sheet="CBC"/>
+    <worksheetSource ref="A4:H34" sheet="CBC"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Container" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="7">
         <s v="PALET-001(311-1984761-DI)"/>
         <s v="PALET-002(311-1984761-DI)"/>
-        <s v="PALET-003(331-1984761-DI)"/>
         <s v="PALET-003(311-1984761-DI)"/>
-        <s v="PALET-004(311-1984761-DI)"/>
         <s v="PALET-004(312-1984761-DI)"/>
-        <s v="PALET-004(332-1984761-DI)"/>
-        <s v="PALET-004(352-1984761-DI)"/>
-        <s v="PALET-005(312-1984761-DI)"/>
-        <s v="PALET-005(352-1984761-DI)"/>
-        <s v="PALET-005(332-1984761-DI)"/>
+        <s v="PALET-005(331-1984761-DI)"/>
+        <s v="PALET-006(332-1984761-DI)"/>
+        <s v="PALET-007(352-1984761-DI)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Vol. Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Area Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="64"/>
     </cacheField>
     <cacheField name="SKU" numFmtId="0">
       <sharedItems count="14">
         <s v="21070-CHULETA DE LOMO 600 GR. BAND."/>
         <s v="21124-CHULETA DE AGUJA 600 GR. BAND."/>
-        <s v="20973-COSTILLA SEMICARNUDA TIRA VACI"/>
-        <s v="21078-CARNE ESTOFADO CERDO 600 GR. B"/>
+        <s v="21091-ESCALOPE DE JAMON 500 GR. BAND"/>
         <s v="21100-COSTILLA TROCEADA 560 GR. BAND"/>
         <s v="21267-CINTA DE LOMO 400 GR. BAND."/>
+        <s v="21078-CARNE ESTOFADO CERDO 600 GR. B"/>
+        <s v="20973-COSTILLA SEMICARNUDA TIRA VACI"/>
+        <s v="20835-SOLOMILLO VACIO"/>
+        <s v="20850-SOLOMILLO 2 UNIDADES VACIO"/>
+        <s v="20871-AGUJA S/H VACIO"/>
         <s v="20836-CINTA LOMO TROZO VACIO"/>
+        <s v="20842-ESCALOPIN LOMO ADOB. 300 GR. B"/>
+        <s v="21277-LOMO SIEMPRE TIERNO 300 GR. BA"/>
         <s v="21102-FILETE LOMO AJILLO 300 GR. BAN"/>
-        <s v="20835-SOLOMILLO VACIO"/>
-        <s v="20842-ESCALOPIN LOMO ADOB. 300 GR. B"/>
-        <s v="20871-AGUJA S/H VACIO"/>
-        <s v="21277-LOMO SIEMPRE TIERNO 300 GR. BA"/>
-        <s v="21091-ESCALOPE DE JAMON 500 GR. BAND"/>
-        <s v="20850-SOLOMILLO 2 UNIDADES VACIO"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="64"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="7">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
-        <n v="5"/>
         <n v="7"/>
         <n v="8"/>
         <n v="6"/>
@@ -1278,412 +1234,312 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="64"/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="16"/>
     <x v="0"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="64"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="64"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="64"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="36"/>
     <x v="1"/>
     <n v="9"/>
     <x v="0"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
-    <x v="0"/>
-    <n v="1"/>
     <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="36"/>
     <x v="1"/>
     <n v="9"/>
     <x v="1"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="36"/>
     <x v="1"/>
     <n v="9"/>
     <x v="2"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="40.0"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="36"/>
     <x v="1"/>
     <n v="9"/>
     <x v="3"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="64.0"/>
-    <x v="0"/>
-    <n v="16"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="64.0"/>
-    <x v="0"/>
-    <n v="16"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="64.0"/>
-    <x v="0"/>
-    <n v="16"/>
     <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="64.0"/>
-    <x v="0"/>
-    <n v="16"/>
-    <x v="3"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="30"/>
     <x v="1"/>
     <n v="8"/>
     <x v="0"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="3"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="30"/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="13"/>
     <x v="1"/>
     <n v="999999"/>
   </r>
   <r>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
     <x v="3"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="2"/>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="2"/>
+    <n v="12"/>
     <x v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="2"/>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="53"/>
+    <x v="5"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="27"/>
+    <x v="6"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="27"/>
+    <x v="6"/>
+    <n v="11"/>
+    <x v="3"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="24"/>
+    <x v="7"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="24"/>
+    <x v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="24"/>
+    <x v="9"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="24"/>
+    <x v="10"/>
+    <n v="9"/>
+    <x v="4"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="11"/>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="11"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="12"/>
     <n v="9"/>
     <x v="1"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="2"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
-    <x v="2"/>
-    <n v="8"/>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="12"/>
+    <n v="3"/>
     <x v="2"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="3"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="53.0"/>
-    <x v="2"/>
-    <n v="16"/>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="13"/>
+    <n v="7"/>
     <x v="3"/>
     <n v="999999"/>
   </r>
   <r>
-    <x v="4"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="0"/>
-    <n v="64"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="4"/>
-    <n v="6"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="5"/>
-    <n v="5"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
     <x v="6"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="6"/>
-    <n v="9"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="7"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="8"/>
-    <n v="10"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="9"/>
-    <n v="12"/>
-    <x v="3"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="9"/>
-    <n v="12"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="1"/>
-    <n v="36"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="10"/>
-    <n v="4"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="11"/>
-    <n v="8"/>
-    <x v="5"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="9"/>
-    <n v="3"/>
-    <x v="6"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="178.0"/>
-    <x v="3"/>
-    <n v="5"/>
-    <x v="6"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="12"/>
-    <n v="12"/>
-    <x v="0"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="11"/>
-    <n v="12"/>
-    <x v="1"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="12"/>
-    <n v="12"/>
-    <x v="2"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="11"/>
-    <n v="4"/>
-    <x v="4"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="13"/>
-    <n v="1"/>
-    <x v="7"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
-    <x v="7"/>
-    <n v="4"/>
-    <x v="7"/>
-    <n v="999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="57.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
     <x v="12"/>
     <n v="12"/>
     <x v="6"/>
     <n v="999999"/>
   </r>
+  <r>
+    <x v="6"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="58"/>
+    <x v="11"/>
+    <n v="12"/>
+    <x v="4"/>
+    <n v="999999"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A2:D44" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1740,176 +1596,152 @@
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
+    <field x="4"/>
     <field x="6"/>
-    <field x="4"/>
   </rowFields>
   <rowItems count="41">
     <i>
       <x/>
+      <x v="1"/>
       <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
+    <i r="2">
       <x v="2"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
+    </i>
+    <i r="2">
       <x v="3"/>
-      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
       <x/>
       <x/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
+    </i>
+    <i r="2">
       <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
+    </i>
+    <i r="2">
       <x v="3"/>
-      <x/>
     </i>
     <i>
       <x v="2"/>
       <x/>
       <x/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
       <x v="2"/>
-      <x/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+      <x v="5"/>
+    </i>
     <i>
+      <x v="4"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
       <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="5"/>
       <x/>
-      <x v="11"/>
-    </i>
-    <i r="1">
+    </i>
+    <i r="2">
       <x v="1"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
+    </i>
+    <i r="2">
       <x v="2"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="12"/>
     </i>
     <i r="1">
       <x v="6"/>
-      <x v="2"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
     </i>
-    <i>
+    <i r="2">
       <x v="4"/>
-      <x/>
-      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="1"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
       <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
       <x v="6"/>
     </i>
     <i>
       <x v="6"/>
+      <x v="9"/>
       <x/>
-      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
-      <x v="9"/>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="2"/>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
+      <x v="13"/>
       <x v="7"/>
-      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -1931,22 +1763,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G2:J44" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G2:J34" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="11">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="9"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1959,33 +1787,32 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="14">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="11"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="6"/>
-        <item x="9"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="13"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="12"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="11"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="8">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="6"/>
         <item x="4"/>
-        <item x="7"/>
         <item x="5"/>
-        <item x="6"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -1997,173 +1824,122 @@
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
+    <field x="4"/>
     <field x="6"/>
-    <field x="4"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="31">
     <i>
       <x/>
+      <x v="6"/>
       <x/>
-      <x v="6"/>
     </i>
     <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
       <x v="11"/>
-    </i>
-    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
-      <x v="6"/>
     </i>
     <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
       <x v="2"/>
       <x v="6"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
       <x v="2"/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="6"/>
     </i>
     <i>
       <x v="3"/>
+      <x v="7"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
       <x/>
-      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="2"/>
-      <x v="5"/>
+      <x v="9"/>
+      <x v="3"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="12"/>
       <x v="5"/>
     </i>
     <i>
       <x v="4"/>
-      <x/>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="11"/>
+      <x v="5"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
       <x/>
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="7"/>
-      <x v="7"/>
+      <x v="1"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="6"/>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
       <x v="2"/>
       <x/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
     <i r="1">
-      <x v="6"/>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="1"/>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="1"/>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2450,19 +2226,18 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J44"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="5" width="5.08984375" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
     <col min="10" max="10" width="5.08984375" customWidth="1"/>
     <col min="11" max="11" width="5.1796875" customWidth="1"/>
   </cols>
@@ -2473,10 +2248,10 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4">
-        <v>10</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2484,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2495,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2507,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>5</v>
@@ -2518,121 +2293,106 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
+        <v>27</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>2</v>
       </c>
       <c r="J5" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>3</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
         <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>4</v>
       </c>
       <c r="J7" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -2641,25 +2401,22 @@
       <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>9</v>
@@ -2668,11 +2425,9 @@
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
       </c>
       <c r="J9" s="5">
         <v>9</v>
@@ -2680,13 +2435,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -2695,25 +2447,20 @@
       <c r="G10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>14</v>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>3</v>
       </c>
       <c r="J10" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>9</v>
@@ -2722,11 +2469,9 @@
       <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
         <v>4</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="J11" s="5">
         <v>9</v>
@@ -2734,13 +2479,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -2749,25 +2494,22 @@
       <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
       <c r="J12" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -2776,25 +2518,22 @@
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>14</v>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -2803,106 +2542,102 @@
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J14" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8</v>
       </c>
       <c r="J15" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="J16" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J17" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>8</v>
@@ -2911,25 +2646,20 @@
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>3</v>
       </c>
       <c r="J18" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>8</v>
@@ -2938,173 +2668,159 @@
       <c r="G19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>14</v>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
       </c>
       <c r="J19" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7</v>
       </c>
       <c r="J20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
       <c r="J21" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="4">
+        <v>31</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
         <v>4</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J22" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="4">
+        <v>32</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J23" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
         <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>7</v>
       </c>
       <c r="E24" s="2"/>
       <c r="G24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4">
+        <v>7</v>
       </c>
       <c r="J24" s="5">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
         <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
       </c>
       <c r="D25" s="2">
         <v>7</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="4">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="4">
         <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -3112,183 +2828,165 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26">
         <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
       </c>
       <c r="D26" s="2">
         <v>7</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6</v>
       </c>
       <c r="J26" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
         <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="4">
+        <v>33</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J27" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
         <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="4">
-        <v>8</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>2</v>
       </c>
       <c r="J28" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
         <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <v>7</v>
       </c>
       <c r="J29" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
         <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="4">
-        <v>3</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4</v>
       </c>
       <c r="J30" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="4">
-        <v>7</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>21</v>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
       </c>
       <c r="J31" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>20</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>3</v>
       </c>
       <c r="J32" s="5">
         <v>3</v>
@@ -3296,25 +2994,20 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <v>6</v>
       </c>
       <c r="J33" s="5">
         <v>12</v>
@@ -3322,262 +3015,132 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
       </c>
       <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="5">
-        <v>12</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="4">
-        <v>7</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
         <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
       </c>
       <c r="D36" s="2">
         <v>8</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4">
-        <v>8</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
         <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
       </c>
       <c r="D37" s="2">
         <v>8</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38">
         <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
       </c>
       <c r="D38" s="2">
         <v>8</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="4">
-        <v>3</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
         <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="4">
-        <v>8</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40">
         <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="4">
-        <v>6</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41">
         <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
       </c>
       <c r="D41" s="2">
         <v>7</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42">
         <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
       </c>
       <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="4">
-        <v>5</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
         <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>7</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="4">
-        <v>6</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -3586,14 +3149,6 @@
       </c>
       <c r="D44" s="2">
         <v>292</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +3218,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>64</v>
@@ -3689,7 +3244,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -3715,7 +3270,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -3741,7 +3296,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>64</v>
@@ -3767,7 +3322,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>36</v>
@@ -3793,7 +3348,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>36</v>
@@ -3819,7 +3374,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>36</v>
@@ -3845,7 +3400,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -3871,7 +3426,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -3897,7 +3452,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -3923,7 +3478,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -3949,7 +3504,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -3975,7 +3530,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>53</v>
@@ -3987,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4001,7 +3556,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>53</v>
@@ -4013,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -4027,7 +3582,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -4039,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -4053,7 +3608,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>53</v>
@@ -4065,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -4079,7 +3634,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>53</v>
@@ -4091,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4105,7 +3660,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>53</v>
@@ -4117,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -4131,7 +3686,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>53</v>
@@ -4157,7 +3712,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>53</v>
@@ -4183,7 +3738,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -4209,7 +3764,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -4235,7 +3790,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4261,7 +3816,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -4287,7 +3842,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -4313,7 +3868,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -4339,7 +3894,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -4365,7 +3920,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -4391,7 +3946,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>24</v>
@@ -4417,7 +3972,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -4443,7 +3998,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -4469,7 +4024,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>24</v>
@@ -4495,7 +4050,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>58</v>
@@ -4521,7 +4076,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>58</v>
@@ -4547,7 +4102,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>58</v>
@@ -4573,7 +4128,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>58</v>
@@ -4599,7 +4154,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>58</v>
@@ -4625,7 +4180,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>58</v>
@@ -4651,7 +4206,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>58</v>
@@ -4677,7 +4232,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>58</v>
@@ -4689,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44">
         <v>7</v>
@@ -4714,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A35" sqref="A35:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4736,7 +4291,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4772,22 +4327,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4798,25 +4353,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>999999</v>
@@ -4824,25 +4379,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>999999</v>
@@ -4850,25 +4405,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>999999</v>
@@ -4878,23 +4433,23 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
         <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
       </c>
       <c r="H9">
         <v>999999</v>
@@ -4904,14 +4459,14 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -4920,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>999999</v>
@@ -4930,23 +4485,23 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>999999</v>
@@ -4956,14 +4511,14 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -4982,20 +4537,20 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5008,20 +4563,20 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5034,20 +4589,20 @@
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -5058,25 +4613,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>999999</v>
@@ -5084,25 +4639,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>999999</v>
@@ -5112,23 +4667,23 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>999999</v>
@@ -5138,23 +4693,23 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>999999</v>
@@ -5164,23 +4719,23 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>999999</v>
@@ -5188,25 +4743,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <v>8</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
       </c>
       <c r="H21">
         <v>999999</v>
@@ -5214,25 +4769,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>999999</v>
@@ -5240,22 +4795,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -5266,22 +4821,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -5292,19 +4847,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5318,25 +4873,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>6</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
       </c>
       <c r="H26">
         <v>999999</v>
@@ -5344,25 +4899,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>999999</v>
@@ -5370,25 +4925,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>999999</v>
@@ -5396,19 +4951,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -5422,25 +4977,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>999999</v>
@@ -5448,25 +5003,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>999999</v>
@@ -5474,25 +5029,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>999999</v>
@@ -5500,25 +5055,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>999999</v>
@@ -5526,294 +5081,28 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>7</v>
       </c>
       <c r="H34">
         <v>999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>8</v>
-      </c>
-      <c r="H36">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39">
-        <v>12</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40">
-        <v>12</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-      <c r="H44">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F46">
-        <f>SUM(F5:F45)</f>
-        <v>392</v>
       </c>
     </row>
   </sheetData>
